--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3104630.742127826</v>
+        <v>3213272.903430639</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8283767.254384612</v>
+        <v>8289260.90037303</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>223.5157404419913</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>397.1357608957298</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>110.4637346787652</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>21.89345424122643</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,16 +904,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>225.114582423406</v>
       </c>
       <c r="F5" t="n">
-        <v>311.3612467397769</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80.23930645615751</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>44.89985591939443</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>38.67430626749123</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>9.152727013336493</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>156.4357356919855</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>54.10799870228436</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>198.3280370363244</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>182.4443919360876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2008,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>136.9649966249142</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,13 +2134,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.1666147997988</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,13 +2298,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>139.5271979141361</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>178.3456785990311</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>86.24032515900481</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>42.71572132711285</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>132.1190787273706</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.05950344416363</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>150.6726801246967</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>19.91555826189102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>173.7494376284334</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>93.05052491174621</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.38427178198041</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>14.90335196317894</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,10 +3672,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>147.2606364488714</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>32.37373183919304</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444133</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>217.6587144826188</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1214.090290083872</v>
+        <v>2003.121004338519</v>
       </c>
       <c r="C2" t="n">
-        <v>845.1277731434607</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="D2" t="n">
-        <v>845.1277731434607</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E2" t="n">
-        <v>459.3395205452164</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>452.394019796013</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4331,13 +4333,13 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320764</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X2" t="n">
-        <v>1604.229622059684</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y2" t="n">
-        <v>1214.090290083872</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4410,25 +4412,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100997</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.77024428415</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>368.9218676324039</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="C4" t="n">
-        <v>199.9856847044969</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="D4" t="n">
-        <v>199.9856847044969</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>162.8263165465538</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1310.884232784815</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1288.769632541152</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W4" t="n">
-        <v>999.3524625041911</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="X4" t="n">
-        <v>771.3629116061737</v>
+        <v>383.6188956900839</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5703324626436</v>
+        <v>162.8263165465538</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>781.4578466818728</v>
+        <v>1005.344648689697</v>
       </c>
       <c r="C5" t="n">
-        <v>781.4578466818728</v>
+        <v>1005.344648689697</v>
       </c>
       <c r="D5" t="n">
-        <v>781.4578466818728</v>
+        <v>1005.344648689697</v>
       </c>
       <c r="E5" t="n">
-        <v>781.4578466818728</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437142</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800309</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.22848474084</v>
@@ -4586,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532449</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532449</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188878</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W5" t="n">
-        <v>1545.062936918764</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X5" t="n">
-        <v>1171.597178657684</v>
+        <v>1395.483980665509</v>
       </c>
       <c r="Y5" t="n">
-        <v>781.4578466818728</v>
+        <v>1005.344648689697</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744475</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.9856847044969</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="C7" t="n">
-        <v>199.9856847044969</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426267</v>
+        <v>1105.345644920626</v>
       </c>
       <c r="W7" t="n">
-        <v>281.0354892056661</v>
+        <v>815.9284748836651</v>
       </c>
       <c r="X7" t="n">
-        <v>281.0354892056661</v>
+        <v>587.9389239856478</v>
       </c>
       <c r="Y7" t="n">
-        <v>281.0354892056661</v>
+        <v>367.1463448421176</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2398.575165100876</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2398.575165100876</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2398.575165100876</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2025.109406839797</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>769.5800553833139</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396067</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>1914.135768168901</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="W10" t="n">
-        <v>1624.71859813194</v>
+        <v>1179.218071111571</v>
       </c>
       <c r="X10" t="n">
-        <v>1396.729047233923</v>
+        <v>951.2285202135537</v>
       </c>
       <c r="Y10" t="n">
-        <v>1175.936468090393</v>
+        <v>951.2285202135537</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,16 +5056,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>448.1846595309957</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>943.5102657467545</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1540.888753373306</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532263</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>372.2697417015818</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2063.776898693423</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1774.701672037621</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1520.017183831734</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1230.600013794774</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X13" t="n">
-        <v>1002.610462896756</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y13" t="n">
-        <v>781.8178837532263</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="14">
@@ -5270,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.5558870561823</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>388.6197041282754</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>959.9969310299522</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.204351886422</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,22 +5600,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2125.759767795858</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U19" t="n">
-        <v>1836.684541140056</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V19" t="n">
-        <v>1582.000052934169</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W19" t="n">
-        <v>1292.582882897208</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X19" t="n">
-        <v>1064.593331999191</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>843.8007528556607</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096656</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.306025422648</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>929.3698424947406</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>779.2532030824049</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>631.3401095000117</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>484.4501620021014</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X22" t="n">
-        <v>1500.747069396417</v>
+        <v>1319.459739407056</v>
       </c>
       <c r="Y22" t="n">
-        <v>1279.954490252887</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517213</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.2213777565</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311364</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032295</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2199.770229732631</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2199.770229732631</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1910.695003076829</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1656.010514870942</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1366.593344833982</v>
       </c>
       <c r="X25" t="n">
-        <v>1124.218459804906</v>
+        <v>1138.603793935964</v>
       </c>
       <c r="Y25" t="n">
-        <v>903.4258806613761</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>2978.613657539998</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>3606.211621094605</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>4158.121351333892</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>4581.74450082896</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400717</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400717</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>365.9405071576786</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>219.0505596597682</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>219.0505596597682</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>782.8410298377091</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,34 +6451,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,10 +6785,10 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876693</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597624</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474266</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650335</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>113.9333885650335</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614391</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.547769317909</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7016,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>1023.721406539404</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2426.372910063109</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2243.518075718013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>1205.369871369643</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7259,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7439,7 +7441,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,19 +7499,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2944.624395303955</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>2944.624395303955</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>2794.50775589162</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>4408.231875074392</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>4119.15664841859</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>3864.472160212703</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>3575.054990175742</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>3347.065439277725</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>3126.272860134195</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -8058,19 +8060,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186.5911984019044</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>240.4465442417439</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241563</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>138.9393975111061</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-1.773338340300088e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10355,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>111.4161395899845</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>19.07741329096388</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>43.26526345294954</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,16 +23898,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>80.44045370237404</v>
+        <v>172.2294825375384</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.357523492470051</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>112.6104454096919</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2.680607402613447</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>139.4693302300323</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>97.57899151911101</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>86.46557462472416</v>
       </c>
     </row>
     <row r="29">
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>123.3744592024055</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>135.8503182118943</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>145.6085800303778</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>44.83521572366135</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>74.19629618688163</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.99097492814126</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>152.3434691354489</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>104.8770068749566</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>185.0317184880952</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>68.5257599066253</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>724510.9882813714</v>
+        <v>730452.9157824422</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712352.7143788786</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788788</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788788</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712352.7143788786</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>712352.7143788786</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712352.7143788786</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.274728755</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287549</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.596890472448789e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819083</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,19 +26423,19 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805864</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707405</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
@@ -26442,22 +26444,22 @@
         <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707328</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-621187.7342161412</v>
+        <v>-621187.7342161415</v>
       </c>
       <c r="C6" t="n">
-        <v>493564.0493597784</v>
+        <v>493564.0493597782</v>
       </c>
       <c r="D6" t="n">
-        <v>331766.0083614577</v>
+        <v>493564.0493597785</v>
       </c>
       <c r="E6" t="n">
-        <v>272820.8586007857</v>
+        <v>90747.87878359492</v>
       </c>
       <c r="F6" t="n">
-        <v>598233.3204081405</v>
+        <v>598233.3204081411</v>
       </c>
       <c r="G6" t="n">
-        <v>598233.3204081409</v>
+        <v>598233.3204081407</v>
       </c>
       <c r="H6" t="n">
-        <v>598233.3204081407</v>
+        <v>598233.3204081411</v>
       </c>
       <c r="I6" t="n">
-        <v>598233.3204081407</v>
+        <v>598233.3204081408</v>
       </c>
       <c r="J6" t="n">
-        <v>430628.1425981585</v>
+        <v>430628.142598158</v>
       </c>
       <c r="K6" t="n">
         <v>598233.3204081411</v>
       </c>
       <c r="L6" t="n">
-        <v>549939.3503999497</v>
+        <v>598233.3204081412</v>
       </c>
       <c r="M6" t="n">
-        <v>513178.2924726287</v>
+        <v>465626.0266792141</v>
       </c>
       <c r="N6" t="n">
         <v>598233.320408141</v>
       </c>
       <c r="O6" t="n">
-        <v>598233.3204081408</v>
+        <v>598233.3204081409</v>
       </c>
       <c r="P6" t="n">
-        <v>598233.3204081407</v>
+        <v>598233.3204081409</v>
       </c>
     </row>
   </sheetData>
@@ -26701,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26722,7 +26724,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,25 +26792,25 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26938,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>159.2181012214893</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.41194187722419</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>36.78777447636371</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>230.2441890826016</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>156.8157876488558</v>
       </c>
       <c r="F5" t="n">
-        <v>95.51479900193453</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59267372577979</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>207.2377874044336</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>212.3709438609708</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>340.0882417040765</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>239.1104512034317</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>130.0872626446055</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.996113090560986e-14</v>
       </c>
     </row>
     <row r="21">
@@ -30520,7 +30522,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.169471064289421e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31279,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31297,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31312,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31367,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31434,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31449,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31467,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>344.6306853939237</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>381.2855185329316</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>233.3139244897919</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>437.853104691376</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270658</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>652.0478969157699</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>602.8420149078237</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>567.5882829286713</v>
       </c>
       <c r="N36" t="n">
-        <v>359.7096985496632</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>265.5442652399247</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>379.4203056753698</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760385</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,7 +34713,7 @@
         <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949732</v>
       </c>
       <c r="P2" t="n">
         <v>308.7456939637948</v>
@@ -34778,19 +34780,19 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>553.5225306839449</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>575.8712262378668</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
@@ -34799,7 +34801,7 @@
         <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34945,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676411</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35100,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35109,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>388.6189266346383</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>206.7892464195648</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>249.9438064495983</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>94.75954470991771</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770457</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.1905571410443</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>509.9138629937516</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>471.5003028244903</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>425.454249006653</v>
       </c>
       <c r="N36" t="n">
-        <v>228.3679864663299</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>134.2025531565914</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>237.2862717533515</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961643</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3209135.746180487</v>
+        <v>3210896.276483273</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="E2" t="n">
-        <v>318.1437649779772</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>144.6749589756785</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>64.50612826256146</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>68.180679774157</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>236.4521327110312</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>66.40055121331467</v>
+        <v>66.40055121331444</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>108.9744426442969</v>
+        <v>174.6843553167656</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>85.45564210299027</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>66.4005512133145</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634833</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5702346036283</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>49.33106662725117</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>240.0633098883607</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>71.05846343488149</v>
       </c>
       <c r="U19" t="n">
-        <v>246.4755938422912</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>119.67600794497</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>246.4755938422912</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>91.89996056624796</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454149</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>177.696569780335</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>55.52079624060509</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>220.6346102953139</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1118.442187461269</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C2" t="n">
-        <v>749.4796705208573</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D2" t="n">
-        <v>391.2139719141068</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E2" t="n">
         <v>69.85663355251364</v>
@@ -4321,13 +4321,13 @@
         <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4366,16 +4366,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.507785786471</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>1505.042027525391</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>1505.042027525391</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="3">
@@ -4400,13 +4400,13 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4418,10 +4418,10 @@
         <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O3" t="n">
         <v>2199.840679460312</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508772</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229704</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106346</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282415</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1387.726391392425</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1387.726391392425</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1387.726391392425</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1387.726391392425</v>
+        <v>1571.288414758779</v>
       </c>
       <c r="W4" t="n">
-        <v>1387.726391392425</v>
+        <v>1281.871244721818</v>
       </c>
       <c r="X4" t="n">
-        <v>1159.736840494407</v>
+        <v>1053.881693823801</v>
       </c>
       <c r="Y4" t="n">
-        <v>938.9442613508772</v>
+        <v>833.0891146802707</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1798.734238163265</v>
+        <v>1674.035030689734</v>
       </c>
       <c r="C5" t="n">
-        <v>1429.771721222853</v>
+        <v>1305.072513749322</v>
       </c>
       <c r="D5" t="n">
-        <v>1071.506022616103</v>
+        <v>946.8068151425714</v>
       </c>
       <c r="E5" t="n">
-        <v>1071.506022616103</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F5" t="n">
-        <v>660.5201178264952</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139076</v>
+        <v>2064.174362665545</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163265</v>
+        <v>1674.035030689734</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>114.543262603435</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>299.264883884485</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>593.9684409159566</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4722,19 +4722,19 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603.6036480119287</v>
+        <v>603.6036480119269</v>
       </c>
       <c r="C8" t="n">
-        <v>234.641131071517</v>
+        <v>234.6411310715152</v>
       </c>
       <c r="D8" t="n">
-        <v>234.641131071517</v>
+        <v>234.6411310715152</v>
       </c>
       <c r="E8" t="n">
-        <v>234.641131071517</v>
+        <v>234.6411310715152</v>
       </c>
       <c r="F8" t="n">
-        <v>227.6956303223135</v>
+        <v>227.6956303223117</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583056</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.808578312942</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.342820051862</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y8" t="n">
-        <v>990.2034880760505</v>
+        <v>990.2034880760486</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380218</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694936</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.015525202711</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>837.0793422748037</v>
+        <v>837.0793422748033</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624679</v>
+        <v>686.9627028624675</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800748</v>
+        <v>539.0496092800744</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821644</v>
+        <v>392.159661782164</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>224.1731970904426</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,25 +4983,25 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
         <v>1408.45656917648</v>
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2272.649715293768</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.574488637966</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.890000432079</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1439.472830395119</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.483279497101</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.6907003535711</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111723</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687887</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706077</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427008</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797193</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443776</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008474</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687887</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5670,55 +5670,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="20">
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,19 +5770,19 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466574</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5840,13 +5840,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832229</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5937,25 +5937,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2326.07822707019</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2106.476762093131</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134626</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,37 +6214,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,10 +6317,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
@@ -6490,7 +6490,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797747</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
         <v>484.8112968429802</v>
@@ -6885,25 +6885,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2267.47159895366</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.396372297858</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>1723.711884091971</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134625</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6943,22 +6943,22 @@
         <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7122,7 +7122,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
         <v>2035.268256189238</v>
@@ -7156,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803938</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,34 +7426,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
         <v>1072.713683962606</v>
@@ -7502,7 +7502,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282754</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7578,7 +7578,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
@@ -7587,34 +7587,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,7 +7721,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
         <v>95.58405025273905</v>
@@ -7785,52 +7785,52 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2254.869721166297</v>
@@ -8066,13 +8066,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>224.3355197601774</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>6.45443753892954</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0.9556134883067244</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878338</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>211.0329012241557</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>44.83521572366001</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>46.45968844823028</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>146.3469868924068</v>
       </c>
       <c r="U19" t="n">
-        <v>39.70888054695297</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>61.35027805667463</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>39.70888054695297</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>125.5054897610403</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>180.5336875992865</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,13 +25125,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>39.70888054695322</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610395</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788786</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788788</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712352.7143788786</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="13">
@@ -26316,25 +26316,25 @@
         <v>718411.5486312478</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="I2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="J2" t="n">
         <v>706253.2747287554</v>
@@ -26343,19 +26343,19 @@
         <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="N2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="O2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,28 +26383,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099822</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707238</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707263</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707277</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707289</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.424496707328</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="K4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
@@ -26456,10 +26456,10 @@
         <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707311</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-621187.7342161417</v>
+        <v>-621187.7342161415</v>
       </c>
       <c r="C6" t="n">
-        <v>493564.0493597781</v>
+        <v>493564.0493597782</v>
       </c>
       <c r="D6" t="n">
-        <v>493564.049359778</v>
+        <v>493564.0493597783</v>
       </c>
       <c r="E6" t="n">
-        <v>90400.49952923806</v>
+        <v>90713.14085815958</v>
       </c>
       <c r="F6" t="n">
-        <v>597885.9411537835</v>
+        <v>598198.5824827049</v>
       </c>
       <c r="G6" t="n">
-        <v>597885.9411537839</v>
+        <v>598198.5824827054</v>
       </c>
       <c r="H6" t="n">
-        <v>597885.9411537842</v>
+        <v>598198.5824827051</v>
       </c>
       <c r="I6" t="n">
-        <v>597885.9411537842</v>
+        <v>598198.5824827051</v>
       </c>
       <c r="J6" t="n">
-        <v>430280.7633438017</v>
+        <v>430593.4046727227</v>
       </c>
       <c r="K6" t="n">
-        <v>597885.9411537838</v>
+        <v>598198.5824827051</v>
       </c>
       <c r="L6" t="n">
-        <v>597885.9411537843</v>
+        <v>598198.5824827049</v>
       </c>
       <c r="M6" t="n">
-        <v>465278.647424857</v>
+        <v>465591.2887537788</v>
       </c>
       <c r="N6" t="n">
-        <v>597885.9411537843</v>
+        <v>598198.5824827057</v>
       </c>
       <c r="O6" t="n">
-        <v>597885.9411537839</v>
+        <v>598198.5824827052</v>
       </c>
       <c r="P6" t="n">
-        <v>597885.9411537845</v>
+        <v>598198.5824827056</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26965,20 +26965,20 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241345</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>433.9106082241346</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000381</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>68.09417367807686</v>
       </c>
       <c r="E2" t="n">
-        <v>63.78660509428454</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>49.98750138605894</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,10 +27596,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>187.6315150612666</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>313.7496902981048</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>175.0955700619228</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>220.1224471232763</v>
+        <v>220.1224471232766</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>302.5732601286571</v>
+        <v>236.8633474561884</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>80.85095794181392</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>80.85095794181434</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.369617236674656e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.833200258261058e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.484429307644118e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,22 +31676,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>618.3341264639751</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>305.1876769472499</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>305.1876769472499</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,7 +32560,7 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
@@ -32569,7 +32569,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>163.4402738502014</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175677</v>
@@ -33903,7 +33903,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
@@ -34122,40 +34122,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34164,7 +34164,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200299</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,7 +34237,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34304,7 +34304,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>615.5326193530514</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>341.8791195350526</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>63.93583437922415</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313188</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>546.4575832202787</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396426</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>167.3462379728909</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>167.3462379728909</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36208,7 +36208,7 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587111</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
@@ -36217,7 +36217,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
@@ -36366,7 +36366,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193518</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
         <v>735.300110790295</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902405</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366966</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
@@ -37949,7 +37949,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
         <v>373.2618997060455</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
